--- a/Notes/Calculations/Uncrack Beam Section Analysis.xlsx
+++ b/Notes/Calculations/Uncrack Beam Section Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\Masteral\AdvancedConcreteDesign\Notes\Calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9555A440-DE9E-47A3-AB88-391EEE404D5B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{091D05C4-5768-4D78-83CF-06A2379DAA21}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{6E5463DA-869A-4A44-A573-A637185052FC}"/>
   </bookViews>
@@ -16,11 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="b">Sheet1!$B$2</definedName>
-    <definedName name="d">Sheet1!$B$4</definedName>
-    <definedName name="fr">Sheet1!$B$13</definedName>
-    <definedName name="h">Sheet1!$B$3</definedName>
-    <definedName name="kd">Sheet1!$D$23</definedName>
+    <definedName name="b">Sheet1!$B$3</definedName>
+    <definedName name="d">Sheet1!$B$5</definedName>
+    <definedName name="fr">Sheet1!$B$14</definedName>
+    <definedName name="h">Sheet1!$B$4</definedName>
+    <definedName name="kd">Sheet1!$D$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>Beam Parameters:</t>
   </si>
@@ -146,9 +146,6 @@
     <t>N-mm</t>
   </si>
   <si>
-    <t>Using Imperical Formula</t>
-  </si>
-  <si>
     <t>fs</t>
   </si>
   <si>
@@ -162,13 +159,32 @@
   </si>
   <si>
     <t>Using Equilibrium and Triangular Stress Block</t>
+  </si>
+  <si>
+    <t>Using Imperical Formula (f = My/I)</t>
+  </si>
+  <si>
+    <r>
+      <t>Calculation of M</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="40"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cr</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,6 +232,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -258,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -269,6 +300,9 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -585,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB597C7-CBAC-4FCE-96F6-81644165EEB9}">
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,357 +636,373 @@
     <col min="10" max="10" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="58.5" x14ac:dyDescent="1">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="4">
         <v>300</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>500</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>440</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>1200</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B8" s="4">
         <v>275</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
-        <v>200000</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
+        <v>200000</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <f>4700*SQRT(B6)</f>
+      <c r="B12" s="1">
+        <f>4700*SQRT(B7)</f>
         <v>21538.105766292447</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1">
-        <f>B8/B11</f>
+      <c r="B13" s="1">
+        <f>B9/B12</f>
         <v>9.2858676696166977</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="1">
-        <f>0.6*SQRT(B6)</f>
+      <c r="B14" s="1">
+        <f>0.6*SQRT(B7)</f>
         <v>2.7495454169735036</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1">
-        <f>B2*B3</f>
-        <v>150000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="1">
+        <f>B3*B4</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="1">
-        <f>(B12-1) * B5</f>
+      <c r="D18" s="1">
+        <f>(B13-1) * B6</f>
         <v>9943.0412035400368</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="7">
-        <f>D16+D17</f>
+      <c r="D19" s="7">
+        <f>D17+D18</f>
         <v>159943.04120354005</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="1">
-        <f>D16*B3/2</f>
-        <v>37500000</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <f>D17*B4/2</f>
+        <v>37500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1">
-        <f>D17*B4</f>
+      <c r="D22" s="1">
+        <f>D18*B5</f>
         <v>4374938.1295576161</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7">
-        <f>SUM(D20:D21)</f>
+      <c r="D23" s="7">
+        <f>SUM(D21:D22)</f>
         <v>41874938.129557617</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="8">
-        <f>D22/D18</f>
+      <c r="D24" s="8">
+        <f>D23/D19</f>
         <v>261.81156625794353</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="G26" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H27" s="3">
+        <f>fr * B9 * (d - kd) / (B12 * (h - kd))</f>
+        <v>19.100389779026479</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" s="3">
+        <f>D24</f>
+        <v>261.81156625794353</v>
+      </c>
+      <c r="G28" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="3">
-        <f>B13 * (B4-D23) * B12 / (B3-D23)</f>
-        <v>19.100389779026479</v>
-      </c>
-      <c r="I26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="3">
-        <f>D23</f>
-        <v>261.81156625794353</v>
-      </c>
-      <c r="G27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="1">
-        <f>B5*H26</f>
+      <c r="H28" s="1">
+        <f>B6*H27</f>
         <v>22920.467734831775</v>
       </c>
-      <c r="J27" t="s">
-        <v>37</v>
-      </c>
-      <c r="K27" s="1">
+      <c r="J28" t="s">
+        <v>36</v>
+      </c>
+      <c r="K28" s="1">
         <f>d - kd/3</f>
         <v>352.72947791401884</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="1">
-        <f>B3-D23</f>
+      <c r="D29" s="1">
+        <f>B4-D24</f>
         <v>238.18843374205647</v>
       </c>
-      <c r="G28" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" s="1">
         <f>1/2 * fr * (h - kd) * b</f>
         <v>98236.48745573526</v>
       </c>
-      <c r="J28" t="s">
-        <v>37</v>
-      </c>
-      <c r="K28" s="1">
+      <c r="J29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K29" s="1">
         <f>h - kd/3 - (h-kd)/3</f>
         <v>333.33333333333337</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="G29" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="5">
-        <f>H27*K27 + H28*K28</f>
+      <c r="H30" s="5">
+        <f>H28*K28 + H29*K29</f>
         <v>40830220.436230749</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="1">
-        <f>B2 * D27^3 / 12 + B2*D27*(D27/2)^2</f>
-        <v>1794595136.465832</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D32" s="1">
-        <f>B2*D28^3/12+B2*D28*(D28/2)^2</f>
-        <v>1351331828.1540363</v>
+        <f>B3 * D28^3 / 12 + B3*D28*(D28/2)^2</f>
+        <v>1794595136.465832</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="1">
+        <f>B3*D29^3/12+B3*D29*(D29/2)^2</f>
+        <v>1351331828.1540363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="1">
-        <f>D17*(B4-D23)^2</f>
+      <c r="D34" s="1">
+        <f>D18*(B5-D24)^2</f>
         <v>315702673.73152244</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="5">
-        <f>SUM(D31:D33)</f>
+      <c r="D35" s="5">
+        <f>SUM(D32:D34)</f>
         <v>3461629638.3513908</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="5">
-        <f>B13*D34/(h-kd)</f>
+      <c r="D37" s="5">
+        <f>B14*D35/(h-kd)</f>
         <v>39959572.166699022</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="G25:L25"/>
+  <mergeCells count="3">
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="G26:L26"/>
+    <mergeCell ref="A1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>